--- a/training/src/test/resources/loginTestData.xlsx
+++ b/training/src/test/resources/loginTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,10 @@
   </si>
   <si>
     <t>111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名或密码错误1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,14 +399,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -435,7 +439,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
